--- a/coldgold.xlsx
+++ b/coldgold.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,19 +444,19 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>Combo Pick</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Event Date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Event Name</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Event Date</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Combo Pick</t>
-        </is>
-      </c>
       <c r="H1" t="inlineStr">
         <is>
           <t>Formula</t>
@@ -470,6 +470,16 @@
       <c r="J1" t="inlineStr">
         <is>
           <t>Closing Odd</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Stake</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Out Come</t>
         </is>
       </c>
     </row>
@@ -481,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Australian</t>
+          <t>Argentinian</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,22 +501,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2 -2.75 ah</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Capalaba Women vs Lions Women    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>30-07-2023</t>
+          <t>02-08-2023</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Chaco For Ever vs Rosario Central    </t>
         </is>
       </c>
       <c r="H2">
@@ -523,6 +533,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>5 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -532,7 +552,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Australian</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,22 +562,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2 dnb</t>
+          <t>2 -2.75 ah</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Real Zaragoza vs Reims    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>29-07-2023</t>
+          <t>30-07-2023</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Capalaba Women vs Lions Women    </t>
         </is>
       </c>
       <c r="H3">
@@ -574,6 +594,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>5 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -593,12 +623,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1 dnb</t>
+          <t>2 dnb</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hoffenheim vs Rangers    (void)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -608,7 +638,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Real Zaragoza vs Reims    </t>
         </is>
       </c>
       <c r="H4">
@@ -625,6 +655,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -634,7 +674,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bulgarian</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -644,12 +684,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2 +0 ah</t>
+          <t>1 dnb</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pirin Blagoevgrad vs Botev Plovdiv    (void)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -659,7 +699,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Hoffenheim vs Rangers    </t>
         </is>
       </c>
       <c r="H5">
@@ -676,6 +716,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>7 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -685,7 +735,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Romanian</t>
+          <t>Bulgarian</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -695,22 +745,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2 dnb</t>
+          <t>2 +0 ah</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Uni Cluj vs Rapid Bucuresti    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>23-07-2023</t>
+          <t>29-07-2023</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Pirin Blagoevgrad vs Botev Plovdiv    </t>
         </is>
       </c>
       <c r="H6">
@@ -727,6 +777,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -736,7 +796,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Irish</t>
+          <t>Romanian</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -746,22 +806,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 dnb</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Gorey Rangers vs Rockmount    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>22-07-2023</t>
+          <t>23-07-2023</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Uni Cluj vs Rapid Bucuresti    </t>
         </is>
       </c>
       <c r="H7">
@@ -778,6 +838,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>5 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -787,7 +857,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>Irish</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -797,12 +867,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2 +0.25 ah</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Schweinfurt vs Viktoria Aschaffenburg    (half-won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -812,7 +882,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Gorey Rangers vs Rockmount    </t>
         </is>
       </c>
       <c r="H8">
@@ -829,6 +899,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>5 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -848,22 +928,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1 -1.25ah</t>
+          <t>2 +0.25 ah</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Wurzburger Kickers vs Memmingen    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>21-07-2023</t>
+          <t>22-07-2023</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Schweinfurt vs Viktoria Aschaffenburg    </t>
         </is>
       </c>
       <c r="H9">
@@ -880,6 +960,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>7 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>half-won</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -889,7 +979,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Austrian</t>
+          <t>German</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -899,12 +989,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2 -1.75 ah</t>
+          <t>1 -1.25ah</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Traisikirchen vs Altach    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -914,7 +1004,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Wurzburger Kickers vs Memmingen    </t>
         </is>
       </c>
       <c r="H10">
@@ -931,6 +1021,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>5 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -940,7 +1040,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Austrian</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -950,22 +1050,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2 -1 ah</t>
+          <t>2 -1.75 ah</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gutersloh vs Preussen Munster    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>19-07-2023</t>
+          <t>21-07-2023</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Traisikirchen vs Altach    </t>
         </is>
       </c>
       <c r="H11">
@@ -982,6 +1082,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>5 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1001,22 +1111,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2 dnb</t>
+          <t>2 -1 ah</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Struga vs Zalgiris    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>18-07-2023</t>
+          <t>19-07-2023</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Gutersloh vs Preussen Munster    </t>
         </is>
       </c>
       <c r="H12">
@@ -1033,6 +1143,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>5 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1052,22 +1172,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1 ht/1ft</t>
+          <t>2 dnb</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hanacka vs Zlin II    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>15-07-2023</t>
+          <t>18-07-2023</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Struga vs Zalgiris    </t>
         </is>
       </c>
       <c r="H13">
@@ -1084,6 +1204,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>5 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1103,22 +1233,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1 -1 ah</t>
+          <t>1 ht/1ft</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Homberg vs Sterkrade Nord    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>14-07-2023</t>
+          <t>15-07-2023</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Hanacka vs Zlin II    </t>
         </is>
       </c>
       <c r="H14">
@@ -1135,6 +1265,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>5 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1154,22 +1294,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1 ht/1ft</t>
+          <t>1 -1 ah</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Al Nassr Riyadh vs Alverca    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10-07-2023</t>
+          <t>14-07-2023</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Homberg vs Sterkrade Nord    </t>
         </is>
       </c>
       <c r="H15">
@@ -1186,6 +1326,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>5 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1195,7 +1345,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Finnish</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1205,22 +1355,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>x2</t>
+          <t>1 ht/1ft</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Kiisto vs Jaro II    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>06-07-2023</t>
+          <t>10-07-2023</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Al Nassr Riyadh vs Alverca    </t>
         </is>
       </c>
       <c r="H16">
@@ -1237,6 +1387,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1246,7 +1406,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Icelandic</t>
+          <t>Finnish</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1256,22 +1416,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>x2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Throttur Women vs Selfoss Women (half stake)    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>03-07-2023</t>
+          <t>06-07-2023</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Kiisto vs Jaro II    </t>
         </is>
       </c>
       <c r="H17">
@@ -1288,6 +1448,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>7 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1297,7 +1467,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Chilean</t>
+          <t>Icelandic</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1312,17 +1482,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Huachipato vs Temuco (half stake)    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>28-06-2023</t>
+          <t>03-07-2023</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Throttur Women vs Selfoss Women </t>
         </is>
       </c>
       <c r="H18">
@@ -1339,6 +1509,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>5 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>half stake</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1348,7 +1528,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Chilean</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1363,7 +1543,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tychy vs Skra (half stake)    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1373,7 +1553,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Huachipato vs Temuco </t>
         </is>
       </c>
       <c r="H19">
@@ -1390,6 +1570,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>5 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>half stake</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1414,7 +1604,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tychy vs Skra (half stake)    (void)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1424,7 +1614,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Tychy vs Skra </t>
         </is>
       </c>
       <c r="H20">
@@ -1441,6 +1631,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>5 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>half stake</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1460,22 +1660,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1 ht/ 1ft</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Legia Warsaw vs Lechia Gdansk (half stake)    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>24-06-2023</t>
+          <t>28-06-2023</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Tychy vs Skra </t>
         </is>
       </c>
       <c r="H21">
@@ -1492,6 +1692,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>5 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>half stake</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1501,7 +1711,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Australian</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1511,12 +1721,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1 ht/ 1 ft</t>
+          <t>1 ht/ 1ft</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Gold Coast United Women vs Capalaba Women (half stake)    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1526,7 +1736,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Legia Warsaw vs Lechia Gdansk </t>
         </is>
       </c>
       <c r="H22">
@@ -1543,6 +1753,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>5 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>half stake</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1552,7 +1772,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Croatian</t>
+          <t>Australian</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1562,22 +1782,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2 -0.25 ah</t>
+          <t>1 ht/ 1 ft</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NK KRK vs Zagorec (Half stake)    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>17-06-2023</t>
+          <t>24-06-2023</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Gold Coast United Women vs Capalaba Women </t>
         </is>
       </c>
       <c r="H23">
@@ -1594,6 +1814,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>5 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>half stake</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1603,7 +1833,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Irish</t>
+          <t>Croatian</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1613,22 +1843,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1 -1.25 ah</t>
+          <t>2 -0.25 ah</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bohemians Women vs Cork City Women (half stake)    (half-lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10-06-2023</t>
+          <t>17-06-2023</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">NK KRK vs Zagorec </t>
         </is>
       </c>
       <c r="H24">
@@ -1645,6 +1875,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>5 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Half stake</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1654,7 +1894,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Swedish</t>
+          <t>Irish</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1664,22 +1904,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1 +2.5 ah</t>
+          <t>1 -1.25 ah</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Uppsala Women vs Rosengard Women (half stake)    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>09-06-2023</t>
+          <t>10-06-2023</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Bohemians Women vs Cork City Women </t>
         </is>
       </c>
       <c r="H25">
@@ -1696,6 +1936,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>5 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>half stake</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1705,7 +1955,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Australian</t>
+          <t>Swedish</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1715,22 +1965,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1 -2.5 ah</t>
+          <t>1 +2.5 ah</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Queensland Lions Women vs Brisbane Women    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>03-06-2023</t>
+          <t>09-06-2023</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Uppsala Women vs Rosengard Women </t>
         </is>
       </c>
       <c r="H26">
@@ -1747,6 +1997,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>5 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>half stake</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1756,7 +2016,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Irish</t>
+          <t>Australian</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1766,22 +2026,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1 -2 ah</t>
+          <t>1 -2.5 ah</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Wexford Youths Women vs Cork City Women    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>31-05-2023</t>
+          <t>03-06-2023</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Queensland Lions Women vs Brisbane Women    </t>
         </is>
       </c>
       <c r="H27">
@@ -1798,6 +2058,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1807,7 +2077,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bangladeshi</t>
+          <t>Irish</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1817,22 +2087,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2 dnb</t>
+          <t>1 -2 ah</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Muktijoddha vs Rahmatganj    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>27-05-2023</t>
+          <t>31-05-2023</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Wexford Youths Women vs Cork City Women    </t>
         </is>
       </c>
       <c r="H28">
@@ -1849,6 +2119,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1858,7 +2138,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Portuguese</t>
+          <t>Bangladeshi</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1873,7 +2153,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Famalicao Women vs Braga Women (neutral venue)    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1883,7 +2163,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Muktijoddha vs Rahmatganj    </t>
         </is>
       </c>
       <c r="H29">
@@ -1900,6 +2180,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1909,7 +2199,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Finnish</t>
+          <t>Portuguese</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1919,22 +2209,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2 -0.25 ah</t>
+          <t>2 dnb</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ilves vs HJK    (half-lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>21-05-2023</t>
+          <t>27-05-2023</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Famalicao Women vs Braga Women </t>
         </is>
       </c>
       <c r="H30">
@@ -1951,6 +2241,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>neutral venue</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1960,7 +2260,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ecuadorian</t>
+          <t>Finnish</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1970,12 +2270,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1 +0.5 ah</t>
+          <t>2 -0.25 ah</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Guayaquil City vs El Nacional    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1985,7 +2285,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Ilves vs HJK    </t>
         </is>
       </c>
       <c r="H31">
@@ -2002,6 +2302,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>half-lost</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2011,7 +2321,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lithuanian</t>
+          <t>Ecuadorian</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2021,22 +2331,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1 dnb</t>
+          <t>1 +0.5 ah</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Kaunas Zalgiris vs Dainava    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>20-05-2023</t>
+          <t>21-05-2023</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Guayaquil City vs El Nacional    </t>
         </is>
       </c>
       <c r="H32">
@@ -2053,6 +2363,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2062,7 +2382,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>Lithuanian</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2072,22 +2392,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2 +3.25 ah</t>
+          <t>1 dnb</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Wolfsburg W vs Freiburg W    (half-won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>18-05-2023</t>
+          <t>20-05-2023</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Kaunas Zalgiris vs Dainava    </t>
         </is>
       </c>
       <c r="H33">
@@ -2104,6 +2424,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2113,7 +2443,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bolivian</t>
+          <t>German</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2123,22 +2453,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2 +1.5 ah</t>
+          <t>2 +3.25 ah</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Always Ready vs Guabira    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>15-05-2023</t>
+          <t>18-05-2023</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Wolfsburg W vs Freiburg W    </t>
         </is>
       </c>
       <c r="H34">
@@ -2155,6 +2485,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>half-won</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2164,7 +2504,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Saudi</t>
+          <t>Bolivian</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2174,12 +2514,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1 +0 ah</t>
+          <t>2 +1.5 ah</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Al Raed vs Dhamk    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2189,7 +2529,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Always Ready vs Guabira    </t>
         </is>
       </c>
       <c r="H35">
@@ -2206,6 +2546,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2215,7 +2565,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ecuadorian</t>
+          <t>Saudi</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2225,22 +2575,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1 +0.25 ah</t>
+          <t>1 +0 ah</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Emelec vs LDU Quito    (half-won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>14-05-2023</t>
+          <t>15-05-2023</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Al Raed vs Dhamk    </t>
         </is>
       </c>
       <c r="H36">
@@ -2257,6 +2607,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2266,7 +2626,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Ecuadorian</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2276,12 +2636,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1 +0.25 ah</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Kvik Halden vs Stromsgodset II    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2291,7 +2651,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Emelec vs LDU Quito    </t>
         </is>
       </c>
       <c r="H37">
@@ -2308,6 +2668,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>half-won</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2317,7 +2687,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Israeli</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2327,22 +2697,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1 +0.25 ah</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SEKTZIA NES TZIONA FC vs BNEI SAKHIN    (half-won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>13-05-2023</t>
+          <t>14-05-2023</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Kvik Halden vs Stromsgodset II    </t>
         </is>
       </c>
       <c r="H38">
@@ -2359,6 +2729,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2368,7 +2748,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Swedish</t>
+          <t>Israeli</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2378,22 +2758,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2 +0 ah</t>
+          <t>1 +0.25 ah</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Djurgarden Women vs Pitea Women    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>09-05-2023</t>
+          <t>13-05-2023</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">SEKTZIA NES TZIONA FC vs BNEI SAKHIN    </t>
         </is>
       </c>
       <c r="H39">
@@ -2410,6 +2790,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>half-won</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2419,7 +2809,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Belgian</t>
+          <t>Swedish</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2429,22 +2819,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1 +1 ah</t>
+          <t>2 +0 ah</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Femina Woluwe (White Star) Women vs Mechelen Women    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>05-05-2023</t>
+          <t>09-05-2023</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Djurgarden Women vs Pitea Women    </t>
         </is>
       </c>
       <c r="H40">
@@ -2461,6 +2851,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2470,7 +2870,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Azerbaijani</t>
+          <t>Belgian</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2480,22 +2880,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2 +1.75 ah</t>
+          <t>1 +1 ah</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Zira vs Turan    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>01-05-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Femina Woluwe </t>
         </is>
       </c>
       <c r="H41">
@@ -2512,6 +2912,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>White Star</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2521,7 +2931,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Azerbaijani</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2531,22 +2941,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2 +1 ah</t>
+          <t>2 +1.75 ah</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Kansas Women vs Gotham Women    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>30-04-2023</t>
+          <t>01-05-2023</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Zira vs Turan    </t>
         </is>
       </c>
       <c r="H42">
@@ -2563,6 +2973,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2572,7 +2992,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Brazilian</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2582,22 +3002,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2 +0 ah</t>
+          <t>2 +1 ah</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sport Recife Women vs Fortaleza Women    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>29-04-2023</t>
+          <t>30-04-2023</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Kansas Women vs Gotham Women    </t>
         </is>
       </c>
       <c r="H43">
@@ -2614,6 +3034,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2623,7 +3053,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Finnish</t>
+          <t>Brazilian</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2633,12 +3063,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1 -2.25ah</t>
+          <t>2 +0 ah</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KUPS Women vs HPS Women    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2648,7 +3078,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Sport Recife Women vs Fortaleza Women    </t>
         </is>
       </c>
       <c r="H44">
@@ -2665,6 +3095,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2674,7 +3114,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Finnish</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2684,22 +3124,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2 ht/2 ft</t>
+          <t>1 -2.25ah</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Aktobe II vs Turan Turikstan    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>27-04-2023</t>
+          <t>29-04-2023</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">KUPS Women vs HPS Women    </t>
         </is>
       </c>
       <c r="H45">
@@ -2716,6 +3156,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2725,7 +3175,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Bahraini</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2735,22 +3185,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1 +0.5 ah</t>
+          <t>2 ht/2 ft</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>East Riffa vs Al Riffa    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>26-04-2023</t>
+          <t>27-04-2023</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Aktobe II vs Turan Turikstan    </t>
         </is>
       </c>
       <c r="H46">
@@ -2767,6 +3217,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2776,7 +3236,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Bahraini</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2786,22 +3246,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1 +0.25 ah</t>
+          <t>1 +0.5 ah</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Dibba Al Fujairah vs Al Nasr    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>24-04-2023</t>
+          <t>26-04-2023</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">East Riffa vs Al Riffa    </t>
         </is>
       </c>
       <c r="H47">
@@ -2818,6 +3278,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2827,7 +3297,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Swedish</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2837,22 +3307,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2 -0.25 ah</t>
+          <t>1 +0.25 ah</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Brommapojkarna Women vs Pitea Women    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>23-04-2023</t>
+          <t>24-04-2023</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Dibba Al Fujairah vs Al Nasr    </t>
         </is>
       </c>
       <c r="H48">
@@ -2869,6 +3339,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2878,7 +3358,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Swedish</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2888,12 +3368,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 -0.25 ah</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>(Andorra Football) Sant Julia vs Penya Encarnada    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2903,7 +3383,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Brommapojkarna Women vs Pitea Women    </t>
         </is>
       </c>
       <c r="H49">
@@ -2920,6 +3400,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2929,7 +3419,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Greek</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2939,12 +3429,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2 dnb</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Larissa Women vs OFI Crete Women    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2952,11 +3442,7 @@
           <t>23-04-2023</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>TBC</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50">
         <f>IF(OR(ISNUMBER(SEARCH($C$49, D49))=1, ISNUMBER(SEARCH($C$49, G49))=1), E49 &amp; G49, ""</f>
         <v/>
@@ -2971,6 +3457,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Andorra Football</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2980,7 +3476,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ecuadorian</t>
+          <t>Greek</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2990,22 +3486,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1 -0.5</t>
+          <t>2 dnb</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Emelec vs El Nacional    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>18-04-2023</t>
+          <t>23-04-2023</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Larissa Women vs OFI Crete Women    </t>
         </is>
       </c>
       <c r="H51">
@@ -3022,6 +3518,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3031,7 +3537,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Ecuadorian</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3041,22 +3547,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1 +0 ah</t>
+          <t>1 -0.5</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Domagnanon vs Faetano (San Marino)    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>16-04-2023</t>
+          <t>18-04-2023</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Emelec vs El Nacional    </t>
         </is>
       </c>
       <c r="H52">
@@ -3073,6 +3579,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3082,7 +3598,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Spanish</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3092,12 +3608,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2 +0 ah</t>
+          <t>1 +0 ah</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Polvorin vs Oviedo ii    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3107,7 +3623,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Domagnanon vs Faetano </t>
         </is>
       </c>
       <c r="H53">
@@ -3124,6 +3640,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>San Marino</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3133,7 +3659,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Spanish</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3143,12 +3669,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2 +0.25 ah</t>
+          <t>2 +0 ah</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Skjervoy vs Skeid ii    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3158,7 +3684,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Polvorin vs Oviedo ii    </t>
         </is>
       </c>
       <c r="H54">
@@ -3175,6 +3701,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3184,7 +3720,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Australian</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3194,22 +3730,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2 ht /2ft</t>
+          <t>2 +0.25 ah</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Fulham Utd W vs Adelaide City W    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>15-04-2023</t>
+          <t>16-04-2023</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Skjervoy vs Skeid ii    </t>
         </is>
       </c>
       <c r="H55">
@@ -3226,6 +3762,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3235,7 +3781,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Belarusian</t>
+          <t>Australian</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3245,12 +3791,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1 +0 ah</t>
+          <t>2 ht /2ft</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Bate Borisov vs Dinamo Minsk    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3260,7 +3806,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Fulham Utd W vs Adelaide City W    </t>
         </is>
       </c>
       <c r="H56">
@@ -3277,6 +3823,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3286,7 +3842,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Scottish</t>
+          <t>Belarusian</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3296,12 +3852,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2 +1 ah</t>
+          <t>1 +0 ah</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Falkirk vs Airdrieonians    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3311,7 +3867,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Bate Borisov vs Dinamo Minsk    </t>
         </is>
       </c>
       <c r="H57">
@@ -3328,6 +3884,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3337,7 +3903,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Malaysian</t>
+          <t>Scottish</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3347,22 +3913,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1 ht / 1ft</t>
+          <t>2 +1 ah</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Johor vs PDRM    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>14-04-2023</t>
+          <t>15-04-2023</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Falkirk vs Airdrieonians    </t>
         </is>
       </c>
       <c r="H58">
@@ -3379,6 +3945,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3388,7 +3964,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>German</t>
+          <t>Malaysian</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3398,12 +3974,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2 +2.25ah</t>
+          <t>1 ht / 1ft</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Wegberg Beeck BCV Gleschpaffendorf    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3413,7 +3989,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Johor vs PDRM    </t>
         </is>
       </c>
       <c r="H59">
@@ -3430,6 +4006,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3439,7 +4025,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Irish</t>
+          <t>German</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3449,12 +4035,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1 -2.25 ah</t>
+          <t>2 +2.25ah</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Waterford vs Kerry    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3464,7 +4050,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Wegberg Beeck BCV Gleschpaffendorf    </t>
         </is>
       </c>
       <c r="H60">
@@ -3481,6 +4067,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3490,7 +4086,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Argentinian</t>
+          <t>Irish</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3500,22 +4096,22 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1 -1 ah</t>
+          <t>1 -2.25 ah</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>River Plate vs Gimnasia    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>13-04-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Waterford vs Kerry    </t>
         </is>
       </c>
       <c r="H61">
@@ -3532,6 +4128,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3541,7 +4147,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Faroese</t>
+          <t>Argentinian</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3551,22 +4157,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2 - 1.75ah</t>
+          <t>1 -1 ah</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>TB Tvoroyri – HB Torshavn    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>12-04-2023</t>
+          <t>13-04-2023</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">River Plate vs Gimnasia    </t>
         </is>
       </c>
       <c r="H62">
@@ -3583,6 +4189,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3592,7 +4208,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Australian</t>
+          <t>Faroese</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3602,22 +4218,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1 -1.75 ah</t>
+          <t>2 - 1.75ah</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>South Hobart vs New Town Eagles    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>10-04-2023</t>
+          <t>12-04-2023</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">TB Tvoroyri – HB Torshavn    </t>
         </is>
       </c>
       <c r="H63">
@@ -3634,6 +4250,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3643,7 +4269,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Algerian</t>
+          <t>Australian</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3653,22 +4279,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2 + 0.25ah</t>
+          <t>1 -1.75 ah</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Paradou vs Kabylie    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>09-04-2023</t>
+          <t>10-04-2023</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">South Hobart vs New Town Eagles    </t>
         </is>
       </c>
       <c r="H64">
@@ -3685,6 +4311,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3694,7 +4330,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Bolivian</t>
+          <t>Algerian</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3704,22 +4340,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2 +0.25ah</t>
+          <t>2 + 0.25ah</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Vinto vs Jorge Wilsterman    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>08-04-2023</t>
+          <t>09-04-2023</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Paradou vs Kabylie    </t>
         </is>
       </c>
       <c r="H65">
@@ -3736,6 +4372,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3745,7 +4391,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bolivian</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3755,22 +4401,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1 +2 ah</t>
+          <t>2 +0.25ah</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>(Djibouti football) Q5 Nourie Transit vs Dikhil    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>07-04-2023</t>
+          <t>08-04-2023</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Vinto vs Jorge Wilsterman    </t>
         </is>
       </c>
       <c r="H66">
@@ -3787,6 +4433,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3796,7 +4452,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Chilean</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3806,12 +4462,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2 dnb</t>
+          <t>1 +2 ah</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Real San Joaquin vs Santiago Wanderers    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3819,11 +4475,7 @@
           <t>07-04-2023</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>TBC</t>
-        </is>
-      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67">
         <f>IF(OR(ISNUMBER(SEARCH($C$66, D66))=1, ISNUMBER(SEARCH($C$66, G66))=1), E66 &amp; G66, ""</f>
         <v/>
@@ -3838,6 +4490,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Djibouti football</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3847,7 +4509,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Czech</t>
+          <t>Chilean</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3857,22 +4519,22 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1 - 3.75 ah</t>
+          <t>2 dnb</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Zlin u 19 vs Pribram u19    (half-won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>06-04-2023</t>
+          <t>07-04-2023</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Real San Joaquin vs Santiago Wanderers    </t>
         </is>
       </c>
       <c r="H68">
@@ -3889,6 +4551,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3898,7 +4570,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Italian</t>
+          <t>Czech</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3908,22 +4580,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1 -0.25 ah</t>
+          <t>1 - 3.75 ah</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Triestina vs Piacenza    (half-lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>02-04-2023</t>
+          <t>06-04-2023</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Zlin u 19 vs Pribram u19    </t>
         </is>
       </c>
       <c r="H69">
@@ -3940,6 +4612,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>half-won</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3959,12 +4641,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2 + 1.25 AH</t>
+          <t>1 -0.25 ah</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Vicenza vs Trento    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3974,7 +4656,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Triestina vs Piacenza    </t>
         </is>
       </c>
       <c r="H70">
@@ -3991,6 +4673,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>half-lost</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4000,7 +4692,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Algerian</t>
+          <t>Italian</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4010,22 +4702,22 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2 +1ah</t>
+          <t>2 + 1.25 AH</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ASM Oran - Tlemcen    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>31-03-2023</t>
+          <t>02-04-2023</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Vicenza vs Trento    </t>
         </is>
       </c>
       <c r="H71">
@@ -4042,6 +4734,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4051,7 +4753,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Brazilian</t>
+          <t>Algerian</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4061,12 +4763,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1 -1AH</t>
+          <t>2 +1ah</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Flamengo Women vs Atletico Paranaense Women    (void)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4076,7 +4778,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">ASM Oran - Tlemcen    </t>
         </is>
       </c>
       <c r="H72">
@@ -4093,6 +4795,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4102,7 +4814,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Spanish</t>
+          <t>Brazilian</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4112,22 +4824,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2 + 0.00 AH</t>
+          <t>1 -1AH</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CD Utrera – San Roque    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>26-03-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Flamengo Women vs Atletico Paranaense Women    </t>
         </is>
       </c>
       <c r="H73">
@@ -4144,6 +4856,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4153,7 +4875,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Norwegian</t>
+          <t>Spanish</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4163,22 +4885,22 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1 - 3.00 AH</t>
+          <t>2 + 0.00 AH</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Valerenga Women vs Arna Bojrnar Women    (won)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>25-03-2023</t>
+          <t>26-03-2023</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">CD Utrera – San Roque    </t>
         </is>
       </c>
       <c r="H74">
@@ -4195,6 +4917,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4204,7 +4936,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Norwegian</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4214,12 +4946,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2 + 2.25 AH</t>
+          <t>1 - 3.00 AH</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Auckland City vs Western Springs    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4229,7 +4961,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Valerenga Women vs Arna Bojrnar Women    </t>
         </is>
       </c>
       <c r="H75">
@@ -4246,6 +4978,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>won</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4255,7 +4997,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Austrian</t>
+          <t>New</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4265,22 +5007,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1 ht / 1ft</t>
+          <t>2 + 2.25 AH</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SV Schwechat vs SV Gerasdorf Stammersdorf    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>24-03-2023</t>
+          <t>25-03-2023</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Auckland City vs Western Springs    </t>
         </is>
       </c>
       <c r="H76">
@@ -4297,6 +5039,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4306,7 +5058,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Spanish</t>
+          <t>Austrian</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4316,22 +5068,22 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2 DNB</t>
+          <t>1 ht / 1ft</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Cultural Leonesa vs Deportivo La coruna    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>19-03-2023</t>
+          <t>24-03-2023</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">SV Schwechat vs SV Gerasdorf Stammersdorf    </t>
         </is>
       </c>
       <c r="H77">
@@ -4348,6 +5100,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4357,7 +5119,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Chilean</t>
+          <t>Spanish</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4367,12 +5129,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Uni Catolica 0.0 AH</t>
+          <t>2 DNB</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Magallanes vs Uni Catolica    (void)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4382,7 +5144,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Cultural Leonesa vs Deportivo La coruna    </t>
         </is>
       </c>
       <c r="H78">
@@ -4399,6 +5161,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>lost</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4408,7 +5180,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Spanish</t>
+          <t>Chilean</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4418,12 +5190,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2 0.0AH</t>
+          <t>Uni Catolica 0.0 AH</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Algeciras - Cordoba    (void)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4433,7 +5205,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Magallanes vs Uni Catolica    </t>
         </is>
       </c>
       <c r="H79">
@@ -4450,6 +5222,16 @@
           <t>TBC</t>
         </is>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4459,7 +5241,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Brazilian</t>
+          <t>Spanish</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4469,22 +5251,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>EC Sao Jose - 0.5</t>
+          <t>2 0.0AH</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>EC Sao Jose vs Sertaozinho    (lost)</t>
+          <t>TBC</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>18-03-2023</t>
+          <t>19-03-2023</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>TBC</t>
+          <t xml:space="preserve">Algeciras - Cordoba    </t>
         </is>
       </c>
       <c r="H80">
@@ -4499,6 +5281,77 @@
       <c r="J80" t="inlineStr">
         <is>
           <t>TBC</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Football</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Brazilian</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.betrush.com/tipster,1477.html</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>EC Sao Jose - 0.5</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>TBC</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>18-03-2023</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EC Sao Jose vs Sertaozinho    </t>
+        </is>
+      </c>
+      <c r="H81">
+        <f>IF(OR(ISNUMBER(SEARCH($C$80, D80))=1, ISNUMBER(SEARCH($C$80, G80))=1), E80 &amp; G80, ""</f>
+        <v/>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>TBC</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>TBC</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>10 (tipster's average</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>lost</t>
         </is>
       </c>
     </row>
